--- a/manuscripts/asymmetries/sclc-asym-tx-rt/sclc-asym-tx-g2g.xlsx
+++ b/manuscripts/asymmetries/sclc-asym-tx-rt/sclc-asym-tx-g2g.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17480" yWindow="0" windowWidth="31320" windowHeight="18100" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="25360" windowHeight="14460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gene-to-gene (LCNEC)" sheetId="4" r:id="rId1"/>
@@ -743,9 +743,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,24 +751,6 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,25 +766,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -832,6 +793,45 @@
     </xf>
     <xf numFmtId="11" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -1540,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1557,285 +1557,299 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39">
+      <c r="A5" s="41"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="44">
         <v>1.3350539999999999E-2</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="51">
+      <c r="E5" s="44"/>
+      <c r="F5" s="38">
         <v>4.0051610000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="36"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="51"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="40">
+      <c r="A7" s="41"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="46">
         <v>2.2379949999999999E-5</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="51">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="38">
         <v>6.713984E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="36"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="51"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="37"/>
-      <c r="B9" s="41">
+      <c r="A9" s="42"/>
+      <c r="B9" s="47">
         <v>2.7883239999999999E-6</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="52">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="39">
         <v>8.3649729999999998E-6</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="21" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="36"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39">
+      <c r="A15" s="41"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="44">
         <v>2.9326899999999999E-2</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="51">
+      <c r="E15" s="44"/>
+      <c r="F15" s="38">
         <v>8.7980699999999995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="36"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="51"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="36"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="40">
+      <c r="A17" s="41"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="46">
         <v>2.6530050000000001E-4</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="51">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="38">
         <v>7.959016E-4</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="36"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="51"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="37"/>
-      <c r="B19" s="41">
+      <c r="A19" s="42"/>
+      <c r="B19" s="47">
         <v>4.4170719999999997E-6</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="52">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="39">
         <v>1.3251220000000001E-5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="21" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="36"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39">
+      <c r="A25" s="41"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="44">
         <v>5.846751E-2</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="51">
+      <c r="E25" s="44"/>
+      <c r="F25" s="38">
         <v>0.17540249999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="36"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="17" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="51"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="40">
+      <c r="A27" s="41"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="46">
         <v>7.9557300000000005E-4</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="51">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="38">
         <v>2.3867189999999998E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="36"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="51"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="37"/>
-      <c r="B29" s="41">
+      <c r="A29" s="42"/>
+      <c r="B29" s="47">
         <v>2.7020249999999999E-5</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="52">
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="39">
         <v>8.1060749999999998E-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
@@ -1843,20 +1857,6 @@
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1873,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1890,312 +1890,312 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39">
+      <c r="A5" s="41"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="44">
         <v>1.439062E-2</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="51">
+      <c r="E5" s="44"/>
+      <c r="F5" s="38">
         <v>4.3171869000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="36"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="51"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="40">
+      <c r="A7" s="41"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="46">
         <v>6.1235110000000005E-4</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="51">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="38">
         <v>1.8370529999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="36"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="51"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="37"/>
-      <c r="B9" s="41">
+      <c r="A9" s="42"/>
+      <c r="B9" s="47">
         <v>5.1143599999999999E-4</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="52">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="39">
         <v>1.5343080000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="21" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="36"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39">
+      <c r="A15" s="41"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="44">
         <v>7.9802650000000003E-3</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="51">
+      <c r="E15" s="44"/>
+      <c r="F15" s="38">
         <v>2.3940800000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="36"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="51"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="36"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="40">
+      <c r="A17" s="41"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="46">
         <v>3.6544939999999998E-4</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="51">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="38">
         <v>1.096348E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="36"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="51"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="37"/>
-      <c r="B19" s="41">
+      <c r="A19" s="42"/>
+      <c r="B19" s="47">
         <v>1.6585549999999999E-6</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="52">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="39">
         <v>4.9756649999999997E-6</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="47"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="21" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="48"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39">
+      <c r="A25" s="35"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="44">
         <v>0.31244090000000002</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="51">
+      <c r="E25" s="44"/>
+      <c r="F25" s="38">
         <v>0.93732269999999995</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="51"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="49"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="40">
+      <c r="A27" s="36"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="46">
         <v>7.4382249999999997E-2</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="51">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="38">
         <v>0.22314675</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="45"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="51"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="46"/>
-      <c r="B29" s="41">
+      <c r="A29" s="33"/>
+      <c r="B29" s="47">
         <v>2.381438E-3</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="52">
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="39">
         <v>7.1443139999999997E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2234,19 +2234,19 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2254,43 +2254,43 @@
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>2651</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>2633</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>2588</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>2582</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="51">
         <v>1631</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <f>F4/B4</f>
         <v>0.61523953225198036</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <f>F4/C4</f>
         <v>0.61944549943030769</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <f>F4/D4</f>
         <v>0.63021638330757346</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f>F4/E4</f>
         <v>0.63168086754453912</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1">
       <c r="A6" s="5"/>
@@ -2317,13 +2317,13 @@
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="7"/>
@@ -2333,61 +2333,61 @@
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>2651</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>2633</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>2588</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="48">
         <f>2336/B10</f>
         <v>0.88117691437193513</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="16"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="10"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11"/>
-      <c r="B14" s="24">
+      <c r="B14" s="49">
         <f>2046/B10</f>
         <v>0.77178423236514526</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="15"/>
       <c r="F14" s="6"/>
     </row>
@@ -2398,13 +2398,13 @@
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="7"/>
@@ -2413,100 +2413,100 @@
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>2582</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <v>2651</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>2633</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>2588</v>
       </c>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="16"/>
       <c r="E20" s="14"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="48">
         <f>1954/B19</f>
         <v>0.75677769171185127</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="16"/>
       <c r="E21" s="14"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="14"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="27"/>
-      <c r="B23" s="23">
+      <c r="A23" s="20"/>
+      <c r="B23" s="48">
         <f>1874/B19</f>
         <v>0.72579395817195969</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="13"/>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11"/>
-      <c r="B25" s="24">
+      <c r="B25" s="49">
         <f>1740/B19</f>
         <v>0.67389620449264132</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/manuscripts/asymmetries/sclc-asym-tx-rt/sclc-asym-tx-g2g.xlsx
+++ b/manuscripts/asymmetries/sclc-asym-tx-rt/sclc-asym-tx-g2g.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="25360" windowHeight="14460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="25360" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Gene-to-gene (LCNEC)" sheetId="4" r:id="rId1"/>
@@ -1540,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1873,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/manuscripts/asymmetries/sclc-asym-tx-rt/sclc-asym-tx-g2g.xlsx
+++ b/manuscripts/asymmetries/sclc-asym-tx-rt/sclc-asym-tx-g2g.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="25360" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="10320" yWindow="0" windowWidth="33640" windowHeight="18480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gene-to-gene (LCNEC)" sheetId="4" r:id="rId1"/>
     <sheet name="Gene-to-gene" sheetId="3" r:id="rId2"/>
     <sheet name="Q4 genes" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -818,13 +819,13 @@
     <xf numFmtId="11" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1836,6 +1837,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
@@ -1843,20 +1858,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2176,6 +2177,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
@@ -2189,13 +2197,6 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2212,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2349,10 +2350,10 @@
       <c r="A11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
@@ -2361,11 +2362,11 @@
       <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="49">
         <f>2336/B10</f>
         <v>0.88117691437193513</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="16"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9"/>
@@ -2382,12 +2383,12 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11"/>
-      <c r="B14" s="49">
+      <c r="B14" s="50">
         <f>2046/B10</f>
         <v>0.77178423236514526</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="15"/>
       <c r="F14" s="6"/>
     </row>
@@ -2431,10 +2432,10 @@
       <c r="A20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="16"/>
       <c r="E20" s="14"/>
       <c r="F20" s="9"/>
@@ -2443,11 +2444,11 @@
       <c r="A21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="49">
         <f>1954/B19</f>
         <v>0.75677769171185127</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="16"/>
       <c r="E21" s="14"/>
       <c r="F21" s="9"/>
@@ -2464,12 +2465,12 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="20"/>
-      <c r="B23" s="48">
+      <c r="B23" s="49">
         <f>1874/B19</f>
         <v>0.72579395817195969</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="21"/>
       <c r="F23" s="6"/>
     </row>
@@ -2485,28 +2486,28 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11"/>
-      <c r="B25" s="49">
+      <c r="B25" s="50">
         <f>1740/B19</f>
         <v>0.67389620449264132</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2516,4 +2517,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>